--- a/schoolreviews.xlsx
+++ b/schoolreviews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justinian\Documents\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomePC\Documents\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A749FE0-C356-47AA-B44B-C99BF390150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5679EAF7-84DB-4EFC-8613-3A0C1690CDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{3B9A5110-46F0-41D7-B4CD-019814D17057}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B9A5110-46F0-41D7-B4CD-019814D17057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="120">
   <si>
     <t>"The lectures are clear, but the assignments are far too difficult."</t>
   </si>
@@ -344,16 +344,58 @@
     <t>Year</t>
   </si>
   <si>
+    <t xml:space="preserve">Month </t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
     <t>Course</t>
   </si>
   <si>
-    <t>BC3001</t>
-  </si>
-  <si>
-    <t>BC3031</t>
-  </si>
-  <si>
-    <t>BC3083</t>
+    <t>BC3025</t>
+  </si>
+  <si>
+    <t>NUS</t>
+  </si>
+  <si>
+    <t>SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -731,15 +773,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFDB858-4A0D-4754-BA5F-DD8D539C663D}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="86" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -747,10 +793,16 @@
         <v>102</v>
       </c>
       <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -758,10 +810,16 @@
         <v>103</v>
       </c>
       <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -769,10 +827,16 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -780,10 +844,16 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -791,10 +861,16 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -802,10 +878,16 @@
         <v>103</v>
       </c>
       <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -813,10 +895,16 @@
         <v>103</v>
       </c>
       <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -824,10 +912,16 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -835,10 +929,16 @@
         <v>103</v>
       </c>
       <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -846,10 +946,16 @@
         <v>103</v>
       </c>
       <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -857,10 +963,16 @@
         <v>103</v>
       </c>
       <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -868,10 +980,16 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -879,10 +997,16 @@
         <v>103</v>
       </c>
       <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -890,10 +1014,16 @@
         <v>103</v>
       </c>
       <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -901,186 +1031,288 @@
         <v>103</v>
       </c>
       <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -1088,10 +1320,16 @@
         <v>104</v>
       </c>
       <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -1099,736 +1337,1138 @@
         <v>104</v>
       </c>
       <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2022</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2022</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2022</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2022</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2022</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2022</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2022</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2022</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2022</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2022</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2022</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2022</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2022</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2022</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2022</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2022</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2022</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2022</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2022</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2022</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2022</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2022</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2022</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2022</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2022</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2022</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2022</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2022</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2022</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2022</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2022</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2022</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2022</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2022</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2022</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2022</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2022</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2022</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2022</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2022</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2022</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2022</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2022</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2022</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2022</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2022</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2022</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2022</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2022</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2022</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2023</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2023</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2023</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2023</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2023</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2023</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2023</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2023</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2023</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2023</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2023</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2023</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2023</v>
       </c>
@@ -1836,17 +2476,29 @@
         <v>105</v>
       </c>
       <c r="C100" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2023</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1857,23 +2509,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="83d657ed-2c5c-43c3-b572-18b6b0e0bb23" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100222A64D3E45E7E4D9608ED7C93913FB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="df4ff0dc54129a41f4ca52c7fc556f0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="83d657ed-2c5c-43c3-b572-18b6b0e0bb23" xmlns:ns4="4a38c240-907e-4cd5-9c57-722592e623da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00cd811669075e20a0850890fdcabd5a" ns3:_="" ns4:_="">
     <xsd:import namespace="83d657ed-2c5c-43c3-b572-18b6b0e0bb23"/>
@@ -2100,32 +2735,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDC0F48D-AAEE-45AB-BCA0-A397F7464E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C1B3EA-F2D8-4046-AF79-DAFDD2DD78A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="83d657ed-2c5c-43c3-b572-18b6b0e0bb23"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4a38c240-907e-4cd5-9c57-722592e623da"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="83d657ed-2c5c-43c3-b572-18b6b0e0bb23" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90289600-62CD-43C9-BD01-1053E36CAF74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2144,6 +2771,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDC0F48D-AAEE-45AB-BCA0-A397F7464E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C1B3EA-F2D8-4046-AF79-DAFDD2DD78A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="83d657ed-2c5c-43c3-b572-18b6b0e0bb23"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4a38c240-907e-4cd5-9c57-722592e623da"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{15ce9348-be2a-462b-8fc0-e1765a9b204a}" enabled="0" method="" siteId="{15ce9348-be2a-462b-8fc0-e1765a9b204a}" removed="1"/>
